--- a/data/historique.xlsx
+++ b/data/historique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,32 @@
         <v>90</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-05-22 12:36:01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tournevis cruciforme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>103</v>
+      </c>
+      <c r="F8" t="n">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/historique.xlsx
+++ b/data/historique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,19 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Quantite_Avant</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Quantite_Apres</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Quantite_Avant</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-22 11:05:34</t>
+          <t>2025-05-23 06:40:52</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,26 +478,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Entrée</t>
+          <t>Sortie</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>93</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>103</v>
+      </c>
+      <c r="F2" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-22 11:07:13</t>
+          <t>2025-05-23 07:10:26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vis 6x50mm</t>
+          <t>Clé à molette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,72 +508,76 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>988</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-22 11:07:32</t>
+          <t>2025-05-23 07:34:03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vis 6x50mm</t>
+          <t>Perceuse sans fil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Entrée</t>
+          <t>Sortie</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>991</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-22 11:12:03</t>
+          <t>2025-05-23 07:34:21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tournevis cruciforme</t>
+          <t>Perceuse sans fil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sortie</t>
+          <t>Entrée</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-22 11:15:14</t>
+          <t>2025-05-23 07:34:51</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tournevis cruciforme</t>
+          <t>Perceuse sans fil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -583,47 +589,47 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-22 11:18:07</t>
+          <t>2025-05-23 07:36:07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tournevis cruciforme</t>
+          <t>Vis 6x50mm</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Entrée</t>
+          <t>Sortie</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>991</v>
       </c>
       <c r="F7" t="n">
-        <v>90</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-22 12:36:01</t>
+          <t>2025-05-23 07:36:29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tournevis cruciforme</t>
+          <t>Vis 6x50mm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -632,13 +638,221 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>103</v>
+        <v>491</v>
       </c>
       <c r="F8" t="n">
-        <v>98</v>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-05-23 07:37:13</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vis 6x50mm</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>503</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-05-23 07:37:45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vis 6x50mm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1503</v>
+      </c>
+      <c r="F10" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-05-23 07:40:59</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clé à molette</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-05-23 07:53:38</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clé à molette</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>23</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-05-23 07:53:53</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clé à molette</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>34</v>
+      </c>
+      <c r="F13" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-05-23 07:53:59</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Clé à molette</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>42</v>
+      </c>
+      <c r="F14" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-05-23 07:54:04</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clé à molette</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>45</v>
+      </c>
+      <c r="F15" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-05-23 07:54:14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Clé à molette</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>46</v>
+      </c>
+      <c r="F16" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/historique.xlsx
+++ b/data/historique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,6 +855,58 @@
         <v>42</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-05-23 07:59:24</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Perceuse sans fil</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05-23 08:09:59</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Perceuse sans fil</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/historique.xlsx
+++ b/data/historique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,6 +907,110 @@
         <v>11</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-05-23 08:42:06</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Parclose</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sortie - Demande 20250523_082712</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-05-23 08:42:06</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vis 6x50mm</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sortie - Demande 20250523_082712</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1234</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-05-23 08:42:06</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tournevis cruciforme</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sortie - Demande 20250523_082712</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>30</v>
+      </c>
+      <c r="F21" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-05-23 08:42:06</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Marteau 500g</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sortie - Demande 20250523_082712</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>30</v>
+      </c>
+      <c r="F22" t="n">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/historique.xlsx
+++ b/data/historique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1011,6 +1011,32 @@
         <v>29</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-05-23 09:04:01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Parclose</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Sortie - Demande 20250523_084920</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/historique.xlsx
+++ b/data/historique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,6 +1037,58 @@
         <v>6</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-05-23 11:20:31</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tournevis cruciforme</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>29</v>
+      </c>
+      <c r="F24" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-05-23 11:21:07</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Tournevis cruciforme</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>31</v>
+      </c>
+      <c r="F25" t="n">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/historique.xlsx
+++ b/data/historique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,552 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-05-26 11:30:17</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tournevis cruciforme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-05-26 11:31:47</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marteau 500g</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-05-26 11:31:49</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marteau 500g</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-05-26 11:32:28</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marteau 500g</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-05-26 11:32:41</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marteau 500g</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>21</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-05-26 11:32:54</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marteau 500g</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:19:37</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Perceuse sans fil</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:22:04</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Perceuse sans fil</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:24:38</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pince coupante</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>45</v>
+      </c>
+      <c r="F13" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:24:41</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pince coupante</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>38</v>
+      </c>
+      <c r="F14" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:26:39</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Marteau 500g</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:27:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tournevis cruciforme</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>40</v>
+      </c>
+      <c r="E16" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:43:32</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Clé à pipe</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>35</v>
+      </c>
+      <c r="F17" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:43:41</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Clé à pipe</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>38</v>
+      </c>
+      <c r="F18" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:44:36</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Clé à pipe</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:44:40</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Clé à pipe</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="n">
+        <v>22</v>
+      </c>
+      <c r="F20" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:44:46</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Clé à pipe</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29</v>
+      </c>
+      <c r="F21" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:44:52</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Clé à pipe</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>22</v>
+      </c>
+      <c r="F22" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:44:55</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Clé à pipe</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>30</v>
+      </c>
+      <c r="F23" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:45:12</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Clé à pipe</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>28</v>
+      </c>
+      <c r="E24" t="n">
+        <v>34</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:45:22</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Clé à pipe</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>64</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/historique.xlsx
+++ b/data/historique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Quantite_Apres</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -490,6 +495,11 @@
       <c r="F2" t="n">
         <v>189</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2923465824</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -516,6 +526,11 @@
       <c r="F3" t="n">
         <v>179</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2923465824</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,6 +557,11 @@
       <c r="F4" t="n">
         <v>189</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2923465824</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -568,6 +588,11 @@
       <c r="F5" t="n">
         <v>203</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2923465824</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -593,6 +618,414 @@
       </c>
       <c r="F6" t="n">
         <v>147</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2923465824</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-05-27 11:20:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allonge de 600 1E 255282</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>147</v>
+      </c>
+      <c r="F7" t="n">
+        <v>146</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2923465824</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-05-27 11:54:38</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POIGNEE EXT REDUITE 5510 BLANC 9016 DTE </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7007332946</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-05-27 11:54:44</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POIGNEE EXT REDUITE 5510 BLANC 9016 DTE </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>7007332946</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-05-27 11:54:46</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POIGNEE EXT REDUITE 5510 BLANC 9016 DTE </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>7007332946</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-05-27 11:54:57</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POIGNEE EXT REDUITE 5510 BLANC 9016 DTE </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7007332946</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-05-27 11:54:59</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POIGNEE EXT REDUITE 5510 BLANC 9016 DTE </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>7007332946</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-05-27 11:55:01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POIGNEE EXT REDUITE 5510 BLANC 9016 DTE </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>7007332946</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-05-27 11:55:03</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POIGNEE EXT REDUITE 5510 BLANC 9016 DTE </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>7007332946</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-05-27 11:55:03</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POIGNEE EXT REDUITE 5510 BLANC 9016 DTE </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>7007332946</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-05-27 11:55:06</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POIGNEE EXT REDUITE 5510 BLANC 9016 DTE </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>7007332946</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-05-27 11:55:08</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POIGNEE EXT REDUITE 5510 BLANC 9016 DTE </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>7007332946</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05-27 11:55:12</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POIGNEE EXT REDUITE 5510 BLANC 9016 DTE </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>7007332946</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-05-27 11:55:21</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POIGNEE EXT REDUITE 5510 BLANC 9016 DTE </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>7007332946</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/historique.xlsx
+++ b/data/historique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,6 +1028,223 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-05-28 07:20:15</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>uuuuuuuuuuu</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Import - Nouveau produit</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>25</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2481023879</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-05-28 07:21:35</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>uuuuuuuuuuu</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>25</v>
+      </c>
+      <c r="F21" t="n">
+        <v>17</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2481023879</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-05-28 07:21:51</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>uuuuuuuuuuu</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>25</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17</v>
+      </c>
+      <c r="F22" t="n">
+        <v>42</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2481023879</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-05-28 07:22:02</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>uuuuuuuuuuu</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>42</v>
+      </c>
+      <c r="F23" t="n">
+        <v>34</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2481023879</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-05-28 07:22:07</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>uuuuuuuuuuu</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>34</v>
+      </c>
+      <c r="F24" t="n">
+        <v>29</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2481023879</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-05-28 07:22:16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>uuuuuuuuuuu</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>29</v>
+      </c>
+      <c r="F25" t="n">
+        <v>52</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2481023879</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-05-28 07:22:24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>uuuuuuuuuuu</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>12</v>
+      </c>
+      <c r="E26" t="n">
+        <v>52</v>
+      </c>
+      <c r="F26" t="n">
+        <v>40</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2481023879</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/historique.xlsx
+++ b/data/historique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1214,6 +1214,37 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-06-02 08:37:32</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Verrouilleur 600mm 1E 255281</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Régule</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>158</v>
+      </c>
+      <c r="F26" t="n">
+        <v>157</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>6755773992</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/historique.xlsx
+++ b/data/historique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,6 +1245,130 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-06-04 10:28:03</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ajout produit</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2033555832</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-06-04 10:57:16</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ui</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ajout produit</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2891054151</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-06-04 10:57:59</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hhh</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ajout produit</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2202099025</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-06-04 10:58:37</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>hhh</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2202099025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
